--- a/data/raw/sales/Week 5/Tonor/other_channels.xlsx
+++ b/data/raw/sales/Week 5/Tonor/other_channels.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Other computers\My Laptop\D\Nitesh\Weekly Report - B2B + B2C\FastAPI\data\raw\sales\Week 4\Tonor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Other computers\My Laptop\D\Nitesh\Weekly Report - B2B + B2C\FastAPI\data\raw\sales\Week 5\Tonor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{315EF3EC-FBE6-47E1-A4F1-707CED03D1BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC9BF0B8-04F9-445A-85CA-962F26A38F13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00DB3424-A17B-4A18-BC6A-329A1F1119CF}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="1p Sales" sheetId="9" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1p Sales'!$C$1:$G$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1p Sales'!$C$1:$G$17</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,17 +37,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="72">
   <si>
     <t>Brand</t>
   </si>
   <si>
+    <t>SKU</t>
+  </si>
+  <si>
     <t>Sale Amount</t>
   </si>
   <si>
     <t>Qty</t>
   </si>
   <si>
+    <t>Model</t>
+  </si>
+  <si>
     <t>ASIN</t>
   </si>
   <si>
@@ -153,18 +159,6 @@
     <t>TONOR Microphone Arm Stand, TONOR Adjustable Suspension Boom Scissor Mic Stand with Pop , 3/8" to 5/8" Adapter, Mic Clip, Upgraded Heavy Duty Clamp for Blue Yeti Nano Snowball Ice and Other Mics(T20)</t>
   </si>
   <si>
-    <t>B0BRKDLXCD</t>
-  </si>
-  <si>
-    <t>RGB Boom Arm, TONOR Adjustable Mic Stand with RGB Light for HyperX QuadCast/Blue Yeti/Shure SM7B/Rode NT1, Rotatable Suspension Boom Scissor Stand for Gaming Streaming Podcasting YouTube Recording T90</t>
-  </si>
-  <si>
-    <t>SKU</t>
-  </si>
-  <si>
-    <t>Model</t>
-  </si>
-  <si>
     <t>FBA79697</t>
   </si>
   <si>
@@ -183,22 +177,58 @@
     <t>TC310</t>
   </si>
   <si>
+    <t>FBA79696</t>
+  </si>
+  <si>
+    <t>TD310+</t>
+  </si>
+  <si>
+    <t>FBA79114</t>
+  </si>
+  <si>
+    <t>TC310+</t>
+  </si>
+  <si>
     <t>FBA79260</t>
   </si>
   <si>
     <t>G11</t>
   </si>
   <si>
-    <t>FBA79696</t>
-  </si>
-  <si>
-    <t>TD310+</t>
-  </si>
-  <si>
-    <t>FBA79114</t>
-  </si>
-  <si>
-    <t>TC310+</t>
+    <t>FBA79111</t>
+  </si>
+  <si>
+    <t>TD510</t>
+  </si>
+  <si>
+    <t>FBA79116</t>
+  </si>
+  <si>
+    <t>TC-777 PRO</t>
+  </si>
+  <si>
+    <t>FBA77117</t>
+  </si>
+  <si>
+    <t>S20</t>
+  </si>
+  <si>
+    <t>FBA77101</t>
+  </si>
+  <si>
+    <t>TC-777</t>
+  </si>
+  <si>
+    <t>FBA77106</t>
+  </si>
+  <si>
+    <t>T20</t>
+  </si>
+  <si>
+    <t>FBA77105</t>
+  </si>
+  <si>
+    <t>T30</t>
   </si>
   <si>
     <t>FBA77111</t>
@@ -207,34 +237,10 @@
     <t>TC30</t>
   </si>
   <si>
-    <t>FBA77117</t>
-  </si>
-  <si>
-    <t>S20</t>
-  </si>
-  <si>
-    <t>FBA79116</t>
-  </si>
-  <si>
-    <t>TC-777 PRO</t>
-  </si>
-  <si>
-    <t>FBA77106</t>
-  </si>
-  <si>
-    <t>T20</t>
-  </si>
-  <si>
-    <t>FBA77101</t>
-  </si>
-  <si>
-    <t>TC-777</t>
-  </si>
-  <si>
-    <t>FBA77105</t>
-  </si>
-  <si>
-    <t>T30</t>
+    <t>FBA79574</t>
+  </si>
+  <si>
+    <t>TC30S</t>
   </si>
   <si>
     <t>FBA77114</t>
@@ -247,24 +253,6 @@
   </si>
   <si>
     <t>TM20</t>
-  </si>
-  <si>
-    <t>FBA79574</t>
-  </si>
-  <si>
-    <t>TC30S</t>
-  </si>
-  <si>
-    <t>FBA79112</t>
-  </si>
-  <si>
-    <t>T90</t>
-  </si>
-  <si>
-    <t>FBA79111</t>
-  </si>
-  <si>
-    <t>TD510</t>
   </si>
 </sst>
 </file>
@@ -660,10 +648,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEFCE879-280C-4E5F-92D0-2856EC6FD320}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -677,387 +665,387 @@
   <sheetData>
     <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F2" s="4">
-        <v>68720.240000000005</v>
+        <v>59623.519999999997</v>
       </c>
       <c r="G2" s="5">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F3" s="4">
-        <v>59911.66</v>
+        <v>53892.28</v>
       </c>
       <c r="G3" s="5">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F4" s="4">
-        <v>37524.550000000003</v>
+        <v>33544.080000000002</v>
       </c>
       <c r="G4" s="5">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F5" s="4">
-        <v>14522.06</v>
+        <v>22868.7</v>
       </c>
       <c r="G5" s="5">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="4">
+        <v>17790.7</v>
+      </c>
+      <c r="G6" s="5">
         <v>7</v>
-      </c>
-      <c r="F6" s="4">
-        <v>14483.07</v>
-      </c>
-      <c r="G6" s="5">
-        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F7" s="4">
-        <v>9691.52</v>
+        <v>17281.349999999999</v>
       </c>
       <c r="G7" s="5">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F8" s="4">
-        <v>9334.74</v>
+        <v>13555.92</v>
       </c>
       <c r="G8" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F9" s="4">
-        <v>8594.92</v>
+        <v>13552.53</v>
       </c>
       <c r="G9" s="5">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F10" s="4">
-        <v>8131.35</v>
+        <v>13215.24</v>
       </c>
       <c r="G10" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="4">
+        <v>13044.92</v>
+      </c>
+      <c r="G11" s="5">
         <v>7</v>
-      </c>
-      <c r="F11" s="4">
-        <v>7816.97</v>
-      </c>
-      <c r="G11" s="5">
-        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F12" s="4">
-        <v>5311.02</v>
+        <v>8132.21</v>
       </c>
       <c r="G12" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F13" s="4">
-        <v>4786.4399999999996</v>
+        <v>7370.34</v>
       </c>
       <c r="G13" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F14" s="4">
-        <v>3643.22</v>
+        <v>5844.93</v>
       </c>
       <c r="G14" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F15" s="4">
-        <v>2422.88</v>
+        <v>4235.6000000000004</v>
       </c>
       <c r="G15" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F16" s="4">
-        <v>0</v>
+        <v>3643.22</v>
       </c>
       <c r="G16" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B17" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F17" s="4">
         <v>0</v>
@@ -1067,27 +1055,53 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>74</v>
-      </c>
-      <c r="B18" t="s">
-        <v>75</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" s="4">
-        <v>0</v>
-      </c>
-      <c r="G18" s="5">
-        <v>0</v>
-      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
